--- a/XTGL.xlsx
+++ b/XTGL.xlsx
@@ -86,19 +86,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>15247456354</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙林峰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>sunlinfeng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15247456354</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙林峰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -453,7 +453,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -484,7 +484,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -516,7 +516,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -550,7 +550,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
